--- a/Calc of mecanum wheel.xlsx
+++ b/Calc of mecanum wheel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Mechanical_Eng\Fremantle\DALE atts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p447144\Documents\mecanum-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>V0</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">crabbing </t>
+  </si>
+  <si>
+    <t>Dale was here</t>
   </si>
 </sst>
 </file>
@@ -621,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G27"/>
+  <dimension ref="A4:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,6 +882,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F10:G10"/>

--- a/Calc of mecanum wheel.xlsx
+++ b/Calc of mecanum wheel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p447144\Documents\mecanum-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Mechanical_Eng\Fremantle\DALE atts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>V0</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t xml:space="preserve">crabbing </t>
-  </si>
-  <si>
-    <t>Dale was here</t>
   </si>
 </sst>
 </file>
@@ -624,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G30"/>
+  <dimension ref="A4:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,11 +879,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F10:G10"/>

--- a/Calc of mecanum wheel.xlsx
+++ b/Calc of mecanum wheel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Mechanical_Eng\Fremantle\DALE atts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,10 +26,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>test</author>
+    <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -37,43 +37,19 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>Unit:</t>
+          <t>Reasoning:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-KM/h</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unit:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-m/s</t>
+times by 1.15 due to friction losses occuring due to bearings etc that add up to a max of 15 percent (worst case). </t>
         </r>
       </text>
     </comment>
@@ -85,91 +61,19 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>test:</t>
+          <t>Reasoning:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Decided on that </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>test:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-N.m</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>test:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Find suggested motor to handle 16N.m of torque - stepper motor highest possible best suggestion.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>test:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Highest friction taken from engineering tool box - rolling friction resistance </t>
+Total force excluding Force on gradient</t>
         </r>
       </text>
     </comment>
@@ -178,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>V0</t>
   </si>
@@ -186,84 +90,33 @@
     <t>V</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
-    <t>τ</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Mt</t>
   </si>
   <si>
-    <t>LAB</t>
-  </si>
-  <si>
-    <t>Mech</t>
-  </si>
-  <si>
     <t xml:space="preserve">a </t>
   </si>
   <si>
-    <t>acceleration (m/s2)</t>
-  </si>
-  <si>
     <t>intial vel. (m/s)</t>
   </si>
   <si>
     <t>final vel. (m/s)</t>
   </si>
   <si>
-    <t>weight distribution</t>
-  </si>
-  <si>
-    <t>Torque (N.m)</t>
-  </si>
-  <si>
-    <t>Force (F)</t>
-  </si>
-  <si>
     <t>Time (s)</t>
   </si>
   <si>
-    <t>diameter (m)</t>
-  </si>
-  <si>
     <t>Total mass (Kg)</t>
   </si>
   <si>
-    <t>Rolling resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rolling speed </t>
-  </si>
-  <si>
-    <t>ω</t>
-  </si>
-  <si>
-    <t>rolling resistance</t>
-  </si>
-  <si>
-    <t>α</t>
-  </si>
-  <si>
     <t xml:space="preserve">per wheel </t>
   </si>
   <si>
     <t xml:space="preserve">Loss of power in crabbing </t>
   </si>
   <si>
-    <t xml:space="preserve">Rolling friction </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mecanum wheel </t>
   </si>
   <si>
@@ -273,13 +126,94 @@
     <t>torque</t>
   </si>
   <si>
-    <t>total torque with losses needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straight </t>
-  </si>
-  <si>
-    <t xml:space="preserve">crabbing </t>
+    <t>Km/h</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Tractive Torque (N.m)</t>
+  </si>
+  <si>
+    <t>Rolling Resistance (N)</t>
+  </si>
+  <si>
+    <t>Force due to acceleration (N)</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Fp</t>
+  </si>
+  <si>
+    <t>Tw</t>
+  </si>
+  <si>
+    <t>Rolling Resistance Co. (unitless)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Weight of equipment (N)</t>
+  </si>
+  <si>
+    <t>Mech (Kg)</t>
+  </si>
+  <si>
+    <t>LAB (Kg)</t>
+  </si>
+  <si>
+    <t>Fh</t>
+  </si>
+  <si>
+    <t>Force total (N)</t>
+  </si>
+  <si>
+    <t>Ft</t>
+  </si>
+  <si>
+    <t>Radius of wheel (m)</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>Angular Velocity (rad/s)</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DEGREE</t>
+  </si>
+  <si>
+    <t>Force on gradient  (N)</t>
+  </si>
+  <si>
+    <t>Total Torque when crabbing on an incline (1 wheel)(Nm)</t>
+  </si>
+  <si>
+    <t>4 wheels(Nm)</t>
+  </si>
+  <si>
+    <t>Acceleration (m/s2)</t>
+  </si>
+  <si>
+    <t>Angular Velocity (m/s)</t>
+  </si>
+  <si>
+    <t>weight distribution (crabbing) (N.m)</t>
+  </si>
+  <si>
+    <t>weight distribution (Straight) (N.m)</t>
   </si>
 </sst>
 </file>
@@ -304,22 +238,46 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -334,11 +292,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,32 +595,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G27"/>
+  <dimension ref="A4:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <f>(D6-C5)/C10</f>
+        <f>(E6-C5)/C17</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -655,9 +634,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -665,226 +644,338 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
         <f>C6*1000/3600</f>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <f>(C7+C8)*(9.81)</f>
+        <v>6621.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f>(C7+C8)</f>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <f>C16*C18*1.15</f>
+        <v>24.847219124999999</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C13" s="6">
+        <f>C12*C9</f>
+        <v>99.326250000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6">
+        <f>C10*C4</f>
+        <v>112.50000000000001</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SIN(E15)*C9</f>
+        <v>231.09574228978579</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <f>(D15*2*PI())/360</f>
+        <v>3.4906585039886591E-2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="9">
+        <f>(C15+C14+C13)*C18*1.15*1.41</f>
+        <v>73.256197070784523</v>
+      </c>
+      <c r="I15" s="4">
+        <f>H15/4</f>
+        <v>18.314049267696131</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6">
+        <f>C13+C14</f>
+        <v>211.82625000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <f>0.6*H15</f>
+        <v>43.953718242470714</v>
+      </c>
+      <c r="K16" s="4">
+        <f>0.4*H15</f>
+        <v>29.302478828313809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <f>(C13+C14)</f>
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
-        <f>C9*C11</f>
-        <v>10.781250000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <f>C7*C4</f>
-        <v>95.833333333333343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
+      <c r="C17">
         <v>5</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>0.1125</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="J17" s="4">
+        <f>J16/2</f>
+        <v>21.976859121235357</v>
+      </c>
+      <c r="K17" s="4">
+        <f>K16/2</f>
+        <v>14.651239414156905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <f>0.204/2</f>
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="C21">
+        <v>1.41</v>
+      </c>
+      <c r="E21" s="6">
+        <f>C11*C21</f>
+        <v>35.034578966249995</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C22">
+        <v>1.25</v>
+      </c>
+      <c r="E22" s="6">
+        <f>C11*C22</f>
+        <v>31.059023906249998</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
         <v>0.6</v>
       </c>
-      <c r="G11" s="2">
+      <c r="C25" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <f>0.6*C8</f>
-        <v>6.4687500000000009</v>
-      </c>
-      <c r="G12">
-        <f>0.4*C8</f>
-        <v>4.3125000000000009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>500</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <f>F12/2</f>
-        <v>3.2343750000000004</v>
-      </c>
-      <c r="G13">
-        <f>G12/2</f>
-        <v>2.1562500000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E25" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>0.6*E21</f>
+        <v>21.020747379749995</v>
+      </c>
+      <c r="C26">
+        <f>0.4*E21</f>
+        <v>14.013831586499998</v>
+      </c>
+      <c r="E26">
+        <f>0.6*E22</f>
+        <v>18.635414343749996</v>
+      </c>
+      <c r="F26">
+        <f>0.4*E22</f>
+        <v>12.423609562499999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D16">
-        <f>E20*C16</f>
-        <v>0.22802343750000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="C20">
-        <v>1.41</v>
-      </c>
-      <c r="E20">
-        <f>C8*C20</f>
-        <v>15.201562500000001</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C21">
-        <v>1.25</v>
-      </c>
-      <c r="E21">
-        <f>C8*C21</f>
-        <v>13.476562500000002</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>0.08</v>
-      </c>
-      <c r="C23">
-        <v>1.008</v>
-      </c>
-      <c r="E23">
-        <f>C8*C23</f>
-        <v>10.867500000000001</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="6">
+        <f>B26/2</f>
+        <v>10.510373689874998</v>
+      </c>
+      <c r="C27" s="6">
+        <f>C26/2</f>
+        <v>7.0069157932499992</v>
+      </c>
+      <c r="E27" s="11">
+        <f>E26/2</f>
+        <v>9.3177071718749982</v>
+      </c>
+      <c r="F27" s="11">
+        <f>F26/2</f>
+        <v>6.2118047812499997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
+      <c r="B29" s="8">
+        <f>(B30*60)/(2*PI())</f>
+        <v>78.017128966615374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <f>E6/C18</f>
+        <v>8.169934640522877</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="E19:F19"/>
+  <mergeCells count="3">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Calc of mecanum wheel.xlsx
+++ b/Calc of mecanum wheel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P136265\Documents\GitHub\mecanum-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>V0</t>
   </si>
@@ -214,12 +214,30 @@
   </si>
   <si>
     <t>weight distribution (Straight) (N.m)</t>
+  </si>
+  <si>
+    <t>Keyway force</t>
+  </si>
+  <si>
+    <t>kN</t>
+  </si>
+  <si>
+    <t>Keyway area</t>
+  </si>
+  <si>
+    <t>Keyway stress</t>
+  </si>
+  <si>
+    <t>Mpa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -315,6 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,15 +614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N30"/>
+  <dimension ref="A4:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="8" max="8" width="46.7109375" bestFit="1" customWidth="1"/>
@@ -660,7 +680,7 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -680,7 +700,7 @@
       </c>
       <c r="C9">
         <f>(C7+C8)*(9.81)</f>
-        <v>6621.75</v>
+        <v>10545.75</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -692,7 +712,7 @@
       </c>
       <c r="C10">
         <f>(C7+C8)</f>
-        <v>675</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -704,7 +724,7 @@
       </c>
       <c r="C11">
         <f>C16*C18*1.15</f>
-        <v>24.847219124999999</v>
+        <v>39.571497125</v>
       </c>
       <c r="N11" t="s">
         <v>35</v>
@@ -730,7 +750,7 @@
       </c>
       <c r="C13" s="6">
         <f>C12*C9</f>
-        <v>99.326250000000002</v>
+        <v>158.18625</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -742,7 +762,7 @@
       </c>
       <c r="C14" s="6">
         <f>C10*C4</f>
-        <v>112.50000000000001</v>
+        <v>179.16666666666669</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
@@ -767,7 +787,7 @@
       </c>
       <c r="C15" s="4">
         <f>SIN(E15)*C9</f>
-        <v>231.09574228978579</v>
+        <v>368.04136735039958</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -781,11 +801,11 @@
       </c>
       <c r="H15" s="9">
         <f>(C15+C14+C13)*C18*1.15*1.41</f>
-        <v>73.256197070784523</v>
+        <v>116.66727681643461</v>
       </c>
       <c r="I15" s="4">
         <f>H15/4</f>
-        <v>18.314049267696131</v>
+        <v>29.166819204108652</v>
       </c>
       <c r="J15" s="10">
         <v>0.6</v>
@@ -803,15 +823,15 @@
       </c>
       <c r="C16" s="6">
         <f>C13+C14</f>
-        <v>211.82625000000002</v>
+        <v>337.35291666666672</v>
       </c>
       <c r="J16" s="4">
         <f>0.6*H15</f>
-        <v>43.953718242470714</v>
+        <v>70.000366089860762</v>
       </c>
       <c r="K16" s="4">
         <f>0.4*H15</f>
-        <v>29.302478828313809</v>
+        <v>46.666910726573846</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -826,11 +846,11 @@
       </c>
       <c r="J17" s="4">
         <f>J16/2</f>
-        <v>21.976859121235357</v>
+        <v>35.000183044930381</v>
       </c>
       <c r="K17" s="4">
         <f>K16/2</f>
-        <v>14.651239414156905</v>
+        <v>23.333455363286923</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -863,7 +883,7 @@
       </c>
       <c r="E21" s="6">
         <f>C11*C21</f>
-        <v>35.034578966249995</v>
+        <v>55.79581094625</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>13</v>
@@ -881,7 +901,7 @@
       </c>
       <c r="E22" s="6">
         <f>C11*C22</f>
-        <v>31.059023906249998</v>
+        <v>49.464371406250002</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>13</v>
@@ -914,19 +934,19 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>0.6*E21</f>
-        <v>21.020747379749995</v>
+        <v>33.477486567749999</v>
       </c>
       <c r="C26">
         <f>0.4*E21</f>
-        <v>14.013831586499998</v>
+        <v>22.318324378500002</v>
       </c>
       <c r="E26">
         <f>0.6*E22</f>
-        <v>18.635414343749996</v>
+        <v>29.678622843749999</v>
       </c>
       <c r="F26">
         <f>0.4*E22</f>
-        <v>12.423609562499999</v>
+        <v>19.785748562500004</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -935,19 +955,19 @@
       </c>
       <c r="B27" s="6">
         <f>B26/2</f>
-        <v>10.510373689874998</v>
+        <v>16.738743283874999</v>
       </c>
       <c r="C27" s="6">
         <f>C26/2</f>
-        <v>7.0069157932499992</v>
+        <v>11.159162189250001</v>
       </c>
       <c r="E27" s="11">
         <f>E26/2</f>
-        <v>9.3177071718749982</v>
+        <v>14.839311421874999</v>
       </c>
       <c r="F27" s="11">
         <f>F26/2</f>
-        <v>6.2118047812499997</v>
+        <v>9.8928742812500019</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -967,6 +987,42 @@
         <f>E6/C18</f>
         <v>8.169934640522877</v>
       </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <f>B26/(20/2)</f>
+        <v>3.3477486567749999</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <f>0.02*0.0025*2</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <f>(B32)/(B33*1000)</f>
+        <v>33.477486567749999</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
